--- a/Income/HSY_inc.xlsx
+++ b/Income/HSY_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.4538</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4531</v>
+        <v>0.455</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4501</v>
+        <v>0.452</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4569</v>
+        <v>0.4589</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4516</v>
+        <v>0.4536</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.4623</v>
@@ -2235,7 +2235,7 @@
         <v>0.1835</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.18</v>
+        <v>0.1801</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.1624</v>
@@ -2365,13 +2365,13 @@
         <v>0.1487</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1349</v>
+        <v>0.135</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.1394</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1439</v>
+        <v>0.144</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1618</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1912</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1545</v>
@@ -3499,22 +3499,22 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.0</v>
+        <v>0.259</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.2567</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2555</v>
+        <v>0.2443</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2491</v>
+        <v>0.2377</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2512</v>
+        <v>0.24</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2476</v>
+        <v>0.2363</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2517</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2454</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.2086</v>
